--- a/biology/Botanique/Horsfieldia/Horsfieldia.xlsx
+++ b/biology/Botanique/Horsfieldia/Horsfieldia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Horsfieldia est un genre de plantes à fleurs de la famille des Myristicaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (10 septembre 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (10 septembre 2020) :
 Horsfieldia amklaal Kanehira
 Horsfieldia amplomontana W.J. de Wilde
 Horsfieldia androphora W.J. de Wilde
@@ -556,7 +570,7 @@
 Horsfieldia tristis W.J. de Wilde
 Horsfieldia wallichii (Hook. f. &amp; Thomson) Warb.
 Horsfieldia xanthina Airy Shaw
-Selon Catalogue of Life                                   (10 septembre 2020)[3] :
+Selon Catalogue of Life                                   (10 septembre 2020) :
 Horsfieldia ampla Markgraf
 Horsfieldia ampliformis W. J. J. O. de Wilde
 Horsfieldia amplomontana W. J. J. O. de Wilde
@@ -662,7 +676,7 @@
 Horsfieldia wallichii (Hook. fil. &amp; Thoms.) Warb.
 Horsfieldia whitmorei J. Sinclair
 Horsfieldia xanthina Airy-Shaw
-Selon The Plant List            (10 septembre 2020)[4] :
+Selon The Plant List            (10 septembre 2020) :
 Horsfieldia amplomontana W.J.de Wilde
 Horsfieldia amygdalina (Wall.) Warb.
 Horsfieldia ardisiifolia (A. DC.) Warb.
@@ -682,7 +696,7 @@
 Horsfieldia sparsa W.J.de Wilde
 Horsfieldia splendida W.J.de Wilde
 Horsfieldia tomentosa Warb.
-Selon Tropicos                                           (10 septembre 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 septembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Horsfieldia aculeata (Blume) A. DC.
 Horsfieldia amplomontana W.J. de Wilde
 Horsfieldia amygdalina (Wall.) Warb.
